--- a/Excel data/1MHz Raw vs Connected.xlsx
+++ b/Excel data/1MHz Raw vs Connected.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\banda\PycharmProjects\pythonProject\scitec\Excel data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE05CAA4-2601-432E-94CB-FD45DB864742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FE9C5C-097D-4873-A561-3F96889DD08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{53DB036E-0E91-440D-845B-587657B059E1}"/>
   </bookViews>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CE3D23-7353-472E-AF9F-EA11FA328DF1}">
-  <dimension ref="A1:S306"/>
+  <dimension ref="A1:S601"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="A192" sqref="A192:C601"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1956,349 +1956,3399 @@
       <c r="S191" s="2"/>
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A192" s="2">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>376</v>
+      </c>
       <c r="S192" s="2"/>
     </row>
-    <row r="193" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A193" s="2">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>43</v>
+      </c>
       <c r="S193" s="2"/>
     </row>
-    <row r="194" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A194" s="2">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>-366</v>
+      </c>
       <c r="S194" s="2"/>
     </row>
-    <row r="195" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A195" s="2">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>-737</v>
+      </c>
       <c r="S195" s="2"/>
     </row>
-    <row r="196" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A196" s="2">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>-954</v>
+      </c>
       <c r="S196" s="2"/>
     </row>
-    <row r="197" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A197" s="2">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>-923</v>
+      </c>
       <c r="S197" s="2"/>
     </row>
-    <row r="198" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A198" s="2">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>-627</v>
+      </c>
       <c r="S198" s="2"/>
     </row>
-    <row r="199" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A199" s="2">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>-132</v>
+      </c>
       <c r="S199" s="2"/>
     </row>
-    <row r="200" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A200" s="2">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>411</v>
+      </c>
       <c r="S200" s="2"/>
     </row>
-    <row r="201" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A201" s="2">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>826</v>
+      </c>
       <c r="S201" s="2"/>
     </row>
-    <row r="202" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A202" s="2">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>1010</v>
+      </c>
       <c r="S202" s="2"/>
     </row>
-    <row r="203" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A203" s="2">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>921</v>
+      </c>
       <c r="S203" s="2"/>
     </row>
-    <row r="204" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A204" s="2">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>600</v>
+      </c>
       <c r="S204" s="2"/>
     </row>
-    <row r="205" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A205" s="2">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>150</v>
+      </c>
       <c r="S205" s="2"/>
     </row>
-    <row r="206" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A206" s="2">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>-305</v>
+      </c>
       <c r="S206" s="2"/>
     </row>
-    <row r="207" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A207" s="2">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>-633</v>
+      </c>
       <c r="S207" s="2"/>
     </row>
-    <row r="208" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A208" s="2">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>-745</v>
+      </c>
       <c r="S208" s="2"/>
     </row>
-    <row r="209" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A209" s="2">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>-608</v>
+      </c>
       <c r="S209" s="2"/>
     </row>
-    <row r="210" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A210" s="2">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>-270</v>
+      </c>
       <c r="S210" s="2"/>
     </row>
-    <row r="211" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A211" s="2">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>152</v>
+      </c>
       <c r="S211" s="2"/>
     </row>
-    <row r="212" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A212" s="2">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>530</v>
+      </c>
       <c r="S212" s="2"/>
     </row>
-    <row r="213" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A213" s="2">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>743</v>
+      </c>
       <c r="S213" s="2"/>
     </row>
-    <row r="214" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A214" s="2">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>742</v>
+      </c>
       <c r="S214" s="2"/>
     </row>
-    <row r="215" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A215" s="2">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>537</v>
+      </c>
       <c r="S215" s="2"/>
     </row>
-    <row r="216" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A216" s="2">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>211</v>
+      </c>
       <c r="S216" s="2"/>
     </row>
-    <row r="217" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A217" s="2">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>-144</v>
+      </c>
       <c r="S217" s="2"/>
     </row>
-    <row r="218" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A218" s="2">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>-426</v>
+      </c>
       <c r="S218" s="2"/>
     </row>
-    <row r="219" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A219" s="2">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>-551</v>
+      </c>
       <c r="S219" s="2"/>
     </row>
-    <row r="220" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A220" s="2">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>-485</v>
+      </c>
       <c r="S220" s="2"/>
     </row>
-    <row r="221" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A221" s="2">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>-253</v>
+      </c>
       <c r="S221" s="2"/>
     </row>
-    <row r="222" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A222" s="2">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>55</v>
+      </c>
       <c r="S222" s="2"/>
     </row>
-    <row r="223" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A223" s="2">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>350</v>
+      </c>
       <c r="S223" s="2"/>
     </row>
-    <row r="224" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A224" s="2">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>544</v>
+      </c>
       <c r="S224" s="2"/>
     </row>
-    <row r="225" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A225" s="2">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>587</v>
+      </c>
       <c r="S225" s="2"/>
     </row>
-    <row r="226" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A226" s="2">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>489</v>
+      </c>
       <c r="S226" s="2"/>
     </row>
-    <row r="227" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A227" s="2">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>301</v>
+      </c>
       <c r="S227" s="2"/>
     </row>
-    <row r="228" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A228" s="2">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>89</v>
+      </c>
       <c r="S228" s="2"/>
     </row>
-    <row r="229" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A229" s="2">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>-71</v>
+      </c>
       <c r="S229" s="2"/>
     </row>
-    <row r="230" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A230" s="2">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>-139</v>
+      </c>
       <c r="S230" s="2"/>
     </row>
-    <row r="231" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A231" s="2">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>-130</v>
+      </c>
       <c r="S231" s="2"/>
     </row>
-    <row r="232" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A232" s="2">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>-95</v>
+      </c>
       <c r="S232" s="2"/>
     </row>
-    <row r="233" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A233" s="2">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>-96</v>
+      </c>
       <c r="S233" s="2"/>
     </row>
-    <row r="234" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A234" s="2">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>-173</v>
+      </c>
       <c r="S234" s="2"/>
     </row>
-    <row r="235" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A235" s="2">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>-310</v>
+      </c>
       <c r="S235" s="2"/>
     </row>
-    <row r="236" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A236" s="2">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>-444</v>
+      </c>
       <c r="S236" s="2"/>
     </row>
-    <row r="237" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A237" s="2">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>-482</v>
+      </c>
       <c r="S237" s="2"/>
     </row>
-    <row r="238" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A238" s="2">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>-352</v>
+      </c>
       <c r="S238" s="2"/>
     </row>
-    <row r="239" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A239" s="2">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>-50</v>
+      </c>
       <c r="S239" s="2"/>
     </row>
-    <row r="240" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A240" s="2">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>361</v>
+      </c>
       <c r="S240" s="2"/>
     </row>
-    <row r="241" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A241" s="2">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>743</v>
+      </c>
       <c r="S241" s="2"/>
     </row>
-    <row r="242" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A242" s="2">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>977</v>
+      </c>
       <c r="S242" s="2"/>
     </row>
-    <row r="243" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A243" s="2">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>982</v>
+      </c>
       <c r="S243" s="2"/>
     </row>
-    <row r="244" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A244" s="2">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>747</v>
+      </c>
       <c r="S244" s="2"/>
     </row>
-    <row r="245" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A245" s="2">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>338</v>
+      </c>
       <c r="S245" s="2"/>
     </row>
-    <row r="246" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A246" s="2">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>-135</v>
+      </c>
       <c r="S246" s="2"/>
     </row>
-    <row r="247" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A247" s="2">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>-541</v>
+      </c>
       <c r="S247" s="2"/>
     </row>
-    <row r="248" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A248" s="2">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>-776</v>
+      </c>
       <c r="S248" s="2"/>
     </row>
-    <row r="249" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A249" s="2">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>-769</v>
+      </c>
       <c r="S249" s="2"/>
     </row>
-    <row r="250" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A250" s="2">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>-527</v>
+      </c>
       <c r="S250" s="2"/>
     </row>
-    <row r="251" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A251" s="2">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>-120</v>
+      </c>
       <c r="S251" s="2"/>
     </row>
-    <row r="252" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A252" s="2">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>312</v>
+      </c>
       <c r="S252" s="2"/>
     </row>
-    <row r="253" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A253" s="2">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>628</v>
+      </c>
       <c r="S253" s="2"/>
     </row>
-    <row r="254" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A254" s="2">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>746</v>
+      </c>
       <c r="S254" s="2"/>
     </row>
-    <row r="255" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A255" s="2">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>646</v>
+      </c>
       <c r="S255" s="2"/>
     </row>
-    <row r="256" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A256" s="2">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>380</v>
+      </c>
       <c r="S256" s="2"/>
     </row>
-    <row r="257" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A257" s="2">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>40</v>
+      </c>
       <c r="S257" s="2"/>
     </row>
-    <row r="258" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A258" s="2">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>-277</v>
+      </c>
       <c r="S258" s="2"/>
     </row>
-    <row r="259" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A259" s="2">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>-479</v>
+      </c>
       <c r="S259" s="2"/>
     </row>
-    <row r="260" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A260" s="2">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>-511</v>
+      </c>
       <c r="S260" s="2"/>
     </row>
-    <row r="261" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A261" s="2">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>-372</v>
+      </c>
       <c r="S261" s="2"/>
     </row>
-    <row r="262" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A262" s="2">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>-109</v>
+      </c>
       <c r="S262" s="2"/>
     </row>
-    <row r="263" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A263" s="2">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>188</v>
+      </c>
       <c r="S263" s="2"/>
     </row>
-    <row r="264" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A264" s="2">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>423</v>
+      </c>
       <c r="S264" s="2"/>
     </row>
-    <row r="265" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A265" s="2">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>529</v>
+      </c>
       <c r="S265" s="2"/>
     </row>
-    <row r="266" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A266" s="2">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>483</v>
+      </c>
       <c r="S266" s="2"/>
     </row>
-    <row r="267" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A267" s="2">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>315</v>
+      </c>
       <c r="S267" s="2"/>
     </row>
-    <row r="268" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A268" s="2">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>78</v>
+      </c>
       <c r="S268" s="2"/>
     </row>
-    <row r="269" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A269" s="2">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>-154</v>
+      </c>
       <c r="S269" s="2"/>
     </row>
-    <row r="270" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A270" s="2">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>-314</v>
+      </c>
       <c r="S270" s="2"/>
     </row>
-    <row r="271" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A271" s="2">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>-362</v>
+      </c>
       <c r="S271" s="2"/>
     </row>
-    <row r="272" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A272" s="2">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>-291</v>
+      </c>
       <c r="S272" s="2"/>
     </row>
-    <row r="273" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A273" s="2">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>-145</v>
+      </c>
       <c r="S273" s="2"/>
     </row>
-    <row r="274" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A274" s="2">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>25</v>
+      </c>
       <c r="S274" s="2"/>
     </row>
-    <row r="275" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A275" s="2">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>155</v>
+      </c>
       <c r="S275" s="2"/>
     </row>
-    <row r="276" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A276" s="2">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>211</v>
+      </c>
       <c r="S276" s="2"/>
     </row>
-    <row r="277" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A277" s="2">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>202</v>
+      </c>
       <c r="S277" s="2"/>
     </row>
-    <row r="278" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A278" s="2">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>167</v>
+      </c>
       <c r="S278" s="2"/>
     </row>
-    <row r="279" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A279" s="2">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>162</v>
+      </c>
       <c r="S279" s="2"/>
     </row>
-    <row r="280" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A280" s="2">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>224</v>
+      </c>
       <c r="S280" s="2"/>
     </row>
-    <row r="281" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A281" s="2">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>357</v>
+      </c>
       <c r="S281" s="2"/>
     </row>
-    <row r="282" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A282" s="2">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>493</v>
+      </c>
       <c r="S282" s="2"/>
     </row>
-    <row r="283" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A283" s="2">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>546</v>
+      </c>
       <c r="S283" s="2"/>
     </row>
-    <row r="284" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A284" s="2">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>457</v>
+      </c>
       <c r="S284" s="2"/>
     </row>
-    <row r="285" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A285" s="2">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>225</v>
+      </c>
       <c r="S285" s="2"/>
     </row>
-    <row r="286" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A286" s="2">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>-105</v>
+      </c>
       <c r="S286" s="2"/>
     </row>
-    <row r="287" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A287" s="2">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>-441</v>
+      </c>
       <c r="S287" s="2"/>
     </row>
-    <row r="288" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A288" s="2">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>-689</v>
+      </c>
       <c r="S288" s="2"/>
     </row>
-    <row r="289" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A289" s="2">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>-772</v>
+      </c>
       <c r="S289" s="2"/>
     </row>
-    <row r="290" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A290" s="2">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>-651</v>
+      </c>
       <c r="S290" s="2"/>
     </row>
-    <row r="291" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A291" s="2">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>-341</v>
+      </c>
       <c r="S291" s="2"/>
     </row>
-    <row r="292" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A292" s="2">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>69</v>
+      </c>
       <c r="S292" s="2"/>
     </row>
-    <row r="293" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A293" s="2">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <v>456</v>
+      </c>
       <c r="S293" s="2"/>
     </row>
-    <row r="294" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A294" s="2">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>709</v>
+      </c>
       <c r="S294" s="2"/>
     </row>
-    <row r="295" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A295" s="2">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>759</v>
+      </c>
       <c r="S295" s="2"/>
     </row>
-    <row r="296" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A296" s="2">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>612</v>
+      </c>
       <c r="S296" s="2"/>
     </row>
-    <row r="297" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A297" s="2">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>325</v>
+      </c>
       <c r="S297" s="2"/>
     </row>
-    <row r="298" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A298" s="2">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>-6</v>
+      </c>
       <c r="S298" s="2"/>
     </row>
-    <row r="299" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A299" s="2">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <v>-286</v>
+      </c>
       <c r="S299" s="2"/>
     </row>
-    <row r="300" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A300" s="2">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>-439</v>
+      </c>
       <c r="S300" s="2"/>
     </row>
-    <row r="301" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A301" s="2">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <v>-431</v>
+      </c>
       <c r="S301" s="2"/>
     </row>
-    <row r="302" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A302" s="2">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <v>-273</v>
+      </c>
       <c r="S302" s="2"/>
     </row>
-    <row r="303" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A303" s="2">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <v>-23</v>
+      </c>
       <c r="S303" s="2"/>
     </row>
-    <row r="304" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A304" s="2">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <v>241</v>
+      </c>
       <c r="S304" s="2"/>
     </row>
-    <row r="305" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A305" s="2">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <v>428</v>
+      </c>
       <c r="S305" s="2"/>
     </row>
-    <row r="306" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A306" s="2">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <v>483</v>
+      </c>
       <c r="S306" s="2"/>
+    </row>
+    <row r="307" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A307" s="2">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="308" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A308" s="2">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="309" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A309" s="2">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A310" s="2">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <v>-192</v>
+      </c>
+    </row>
+    <row r="311" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A311" s="2">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <v>-288</v>
+      </c>
+    </row>
+    <row r="312" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A312" s="2">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <v>-271</v>
+      </c>
+    </row>
+    <row r="313" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A313" s="2">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <v>-153</v>
+      </c>
+    </row>
+    <row r="314" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A314" s="2">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="315" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A315" s="2">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="316" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A316" s="2">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="317" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A317" s="2">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="318" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A318" s="2">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="319" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A319" s="2">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="320" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A320" s="2">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A321" s="2">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A322" s="2">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A323" s="2">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A324" s="2">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A325" s="2">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A326" s="2">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A327" s="2">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>-241</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A328" s="2">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>-396</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A329" s="2">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>-484</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A330" s="2">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>-435</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A331" s="2">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>-227</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A332" s="2">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A333" s="2">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A334" s="2">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A335" s="2">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A336" s="2">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A337" s="2">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A338" s="2">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A339" s="2">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>-221</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A340" s="2">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>-520</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A341" s="2">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>-641</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A342" s="2">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <v>-557</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A343" s="2">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <v>-297</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A344" s="2">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A345" s="2">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A346" s="2">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A347" s="2">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A348" s="2">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A349" s="2">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A350" s="2">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A351" s="2">
+        <v>349</v>
+      </c>
+      <c r="B351">
+        <v>-262</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A352" s="2">
+        <v>350</v>
+      </c>
+      <c r="B352">
+        <v>-343</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A353" s="2">
+        <v>351</v>
+      </c>
+      <c r="B353">
+        <v>-296</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A354" s="2">
+        <v>352</v>
+      </c>
+      <c r="B354">
+        <v>-149</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A355" s="2">
+        <v>353</v>
+      </c>
+      <c r="B355">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A356" s="2">
+        <v>354</v>
+      </c>
+      <c r="B356">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A357" s="2">
+        <v>355</v>
+      </c>
+      <c r="B357">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A358" s="2">
+        <v>356</v>
+      </c>
+      <c r="B358">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A359" s="2">
+        <v>357</v>
+      </c>
+      <c r="B359">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A360" s="2">
+        <v>358</v>
+      </c>
+      <c r="B360">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A361" s="2">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A362" s="2">
+        <v>360</v>
+      </c>
+      <c r="B362">
+        <v>-151</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A363" s="2">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <v>-214</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A364" s="2">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <v>-209</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A365" s="2">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>-148</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A366" s="2">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>-56</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A367" s="2">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A368" s="2">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A369" s="2">
+        <v>367</v>
+      </c>
+      <c r="B369">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A370" s="2">
+        <v>368</v>
+      </c>
+      <c r="B370">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A371" s="2">
+        <v>369</v>
+      </c>
+      <c r="B371">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A372" s="2">
+        <v>370</v>
+      </c>
+      <c r="B372">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A373" s="2">
+        <v>371</v>
+      </c>
+      <c r="B373">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A374" s="2">
+        <v>372</v>
+      </c>
+      <c r="B374">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A375" s="2">
+        <v>373</v>
+      </c>
+      <c r="B375">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A376" s="2">
+        <v>374</v>
+      </c>
+      <c r="B376">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A377" s="2">
+        <v>375</v>
+      </c>
+      <c r="B377">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A378" s="2">
+        <v>376</v>
+      </c>
+      <c r="B378">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A379" s="2">
+        <v>377</v>
+      </c>
+      <c r="B379">
+        <v>-219</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A380" s="2">
+        <v>378</v>
+      </c>
+      <c r="B380">
+        <v>-531</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A381" s="2">
+        <v>379</v>
+      </c>
+      <c r="B381">
+        <v>-709</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A382" s="2">
+        <v>380</v>
+      </c>
+      <c r="B382">
+        <v>-698</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A383" s="2">
+        <v>381</v>
+      </c>
+      <c r="B383">
+        <v>-505</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A384" s="2">
+        <v>382</v>
+      </c>
+      <c r="B384">
+        <v>-183</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A385" s="2">
+        <v>383</v>
+      </c>
+      <c r="B385">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A386" s="2">
+        <v>384</v>
+      </c>
+      <c r="B386">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A387" s="2">
+        <v>385</v>
+      </c>
+      <c r="B387">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A388" s="2">
+        <v>386</v>
+      </c>
+      <c r="B388">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A389" s="2">
+        <v>387</v>
+      </c>
+      <c r="B389">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A390" s="2">
+        <v>388</v>
+      </c>
+      <c r="B390">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A391" s="2">
+        <v>389</v>
+      </c>
+      <c r="B391">
+        <v>-83</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A392" s="2">
+        <v>390</v>
+      </c>
+      <c r="B392">
+        <v>-233</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A393" s="2">
+        <v>391</v>
+      </c>
+      <c r="B393">
+        <v>-269</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A394" s="2">
+        <v>392</v>
+      </c>
+      <c r="B394">
+        <v>-201</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A395" s="2">
+        <v>393</v>
+      </c>
+      <c r="B395">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A396" s="2">
+        <v>394</v>
+      </c>
+      <c r="B396">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A397" s="2">
+        <v>395</v>
+      </c>
+      <c r="B397">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A398" s="2">
+        <v>396</v>
+      </c>
+      <c r="B398">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A399" s="2">
+        <v>397</v>
+      </c>
+      <c r="B399">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A400" s="2">
+        <v>398</v>
+      </c>
+      <c r="B400">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A401" s="2">
+        <v>399</v>
+      </c>
+      <c r="B401">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A402" s="2">
+        <v>400</v>
+      </c>
+      <c r="B402">
+        <v>-86</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A403" s="2">
+        <v>401</v>
+      </c>
+      <c r="B403">
+        <v>-171</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A404" s="2">
+        <v>402</v>
+      </c>
+      <c r="B404">
+        <v>-189</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A405" s="2">
+        <v>403</v>
+      </c>
+      <c r="B405">
+        <v>-136</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A406" s="2">
+        <v>404</v>
+      </c>
+      <c r="B406">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A407" s="2">
+        <v>405</v>
+      </c>
+      <c r="B407">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A408" s="2">
+        <v>406</v>
+      </c>
+      <c r="B408">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A409" s="2">
+        <v>407</v>
+      </c>
+      <c r="B409">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A410" s="2">
+        <v>408</v>
+      </c>
+      <c r="B410">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A411" s="2">
+        <v>409</v>
+      </c>
+      <c r="B411">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A412" s="2">
+        <v>410</v>
+      </c>
+      <c r="B412">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A413" s="2">
+        <v>411</v>
+      </c>
+      <c r="B413">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A414" s="2">
+        <v>412</v>
+      </c>
+      <c r="B414">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A415" s="2">
+        <v>413</v>
+      </c>
+      <c r="B415">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A416" s="2">
+        <v>414</v>
+      </c>
+      <c r="B416">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A417" s="2">
+        <v>415</v>
+      </c>
+      <c r="B417">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A418" s="2">
+        <v>416</v>
+      </c>
+      <c r="B418">
+        <v>-87</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A419" s="2">
+        <v>417</v>
+      </c>
+      <c r="B419">
+        <v>-225</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A420" s="2">
+        <v>418</v>
+      </c>
+      <c r="B420">
+        <v>-376</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A421" s="2">
+        <v>419</v>
+      </c>
+      <c r="B421">
+        <v>-494</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A422" s="2">
+        <v>420</v>
+      </c>
+      <c r="B422">
+        <v>-522</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A423" s="2">
+        <v>421</v>
+      </c>
+      <c r="B423">
+        <v>-412</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A424" s="2">
+        <v>422</v>
+      </c>
+      <c r="B424">
+        <v>-166</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A425" s="2">
+        <v>423</v>
+      </c>
+      <c r="B425">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A426" s="2">
+        <v>424</v>
+      </c>
+      <c r="B426">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A427" s="2">
+        <v>425</v>
+      </c>
+      <c r="B427">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A428" s="2">
+        <v>426</v>
+      </c>
+      <c r="B428">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A429" s="2">
+        <v>427</v>
+      </c>
+      <c r="B429">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A430" s="2">
+        <v>428</v>
+      </c>
+      <c r="B430">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A431" s="2">
+        <v>429</v>
+      </c>
+      <c r="B431">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A432" s="2">
+        <v>430</v>
+      </c>
+      <c r="B432">
+        <v>-249</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A433" s="2">
+        <v>431</v>
+      </c>
+      <c r="B433">
+        <v>-496</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A434" s="2">
+        <v>432</v>
+      </c>
+      <c r="B434">
+        <v>-549</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A435" s="2">
+        <v>433</v>
+      </c>
+      <c r="B435">
+        <v>-418</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A436" s="2">
+        <v>434</v>
+      </c>
+      <c r="B436">
+        <v>-157</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A437" s="2">
+        <v>435</v>
+      </c>
+      <c r="B437">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A438" s="2">
+        <v>436</v>
+      </c>
+      <c r="B438">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A439" s="2">
+        <v>437</v>
+      </c>
+      <c r="B439">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A440" s="2">
+        <v>438</v>
+      </c>
+      <c r="B440">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A441" s="2">
+        <v>439</v>
+      </c>
+      <c r="B441">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A442" s="2">
+        <v>440</v>
+      </c>
+      <c r="B442">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A443" s="2">
+        <v>441</v>
+      </c>
+      <c r="B443">
+        <v>-149</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A444" s="2">
+        <v>442</v>
+      </c>
+      <c r="B444">
+        <v>-233</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A445" s="2">
+        <v>443</v>
+      </c>
+      <c r="B445">
+        <v>-210</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A446" s="2">
+        <v>444</v>
+      </c>
+      <c r="B446">
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A447" s="2">
+        <v>445</v>
+      </c>
+      <c r="B447">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A448" s="2">
+        <v>446</v>
+      </c>
+      <c r="B448">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A449" s="2">
+        <v>447</v>
+      </c>
+      <c r="B449">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A450" s="2">
+        <v>448</v>
+      </c>
+      <c r="B450">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A451" s="2">
+        <v>449</v>
+      </c>
+      <c r="B451">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A452" s="2">
+        <v>450</v>
+      </c>
+      <c r="B452">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A453" s="2">
+        <v>451</v>
+      </c>
+      <c r="B453">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A454" s="2">
+        <v>452</v>
+      </c>
+      <c r="B454">
+        <v>-114</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A455" s="2">
+        <v>453</v>
+      </c>
+      <c r="B455">
+        <v>-156</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A456" s="2">
+        <v>454</v>
+      </c>
+      <c r="B456">
+        <v>-152</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A457" s="2">
+        <v>455</v>
+      </c>
+      <c r="B457">
+        <v>-111</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A458" s="2">
+        <v>456</v>
+      </c>
+      <c r="B458">
+        <v>-62</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A459" s="2">
+        <v>457</v>
+      </c>
+      <c r="B459">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A460" s="2">
+        <v>458</v>
+      </c>
+      <c r="B460">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A461" s="2">
+        <v>459</v>
+      </c>
+      <c r="B461">
+        <v>-74</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A462" s="2">
+        <v>460</v>
+      </c>
+      <c r="B462">
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A463" s="2">
+        <v>461</v>
+      </c>
+      <c r="B463">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A464" s="2">
+        <v>462</v>
+      </c>
+      <c r="B464">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A465" s="2">
+        <v>463</v>
+      </c>
+      <c r="B465">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A466" s="2">
+        <v>464</v>
+      </c>
+      <c r="B466">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A467" s="2">
+        <v>465</v>
+      </c>
+      <c r="B467">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A468" s="2">
+        <v>466</v>
+      </c>
+      <c r="B468">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A469" s="2">
+        <v>467</v>
+      </c>
+      <c r="B469">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A470" s="2">
+        <v>468</v>
+      </c>
+      <c r="B470">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A471" s="2">
+        <v>469</v>
+      </c>
+      <c r="B471">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A472" s="2">
+        <v>470</v>
+      </c>
+      <c r="B472">
+        <v>-197</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A473" s="2">
+        <v>471</v>
+      </c>
+      <c r="B473">
+        <v>-517</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A474" s="2">
+        <v>472</v>
+      </c>
+      <c r="B474">
+        <v>-691</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A475" s="2">
+        <v>473</v>
+      </c>
+      <c r="B475">
+        <v>-671</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A476" s="2">
+        <v>474</v>
+      </c>
+      <c r="B476">
+        <v>-462</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A477" s="2">
+        <v>475</v>
+      </c>
+      <c r="B477">
+        <v>-141</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A478" s="2">
+        <v>476</v>
+      </c>
+      <c r="B478">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A479" s="2">
+        <v>477</v>
+      </c>
+      <c r="B479">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A480" s="2">
+        <v>478</v>
+      </c>
+      <c r="B480">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A481" s="2">
+        <v>479</v>
+      </c>
+      <c r="B481">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A482" s="2">
+        <v>480</v>
+      </c>
+      <c r="B482">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A483" s="2">
+        <v>481</v>
+      </c>
+      <c r="B483">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A484" s="2">
+        <v>482</v>
+      </c>
+      <c r="B484">
+        <v>-144</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A485" s="2">
+        <v>483</v>
+      </c>
+      <c r="B485">
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A486" s="2">
+        <v>484</v>
+      </c>
+      <c r="B486">
+        <v>-117</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A487" s="2">
+        <v>485</v>
+      </c>
+      <c r="B487">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A488" s="2">
+        <v>486</v>
+      </c>
+      <c r="B488">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A489" s="2">
+        <v>487</v>
+      </c>
+      <c r="B489">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A490" s="2">
+        <v>488</v>
+      </c>
+      <c r="B490">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A491" s="2">
+        <v>489</v>
+      </c>
+      <c r="B491">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A492" s="2">
+        <v>490</v>
+      </c>
+      <c r="B492">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A493" s="2">
+        <v>491</v>
+      </c>
+      <c r="B493">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A494" s="2">
+        <v>492</v>
+      </c>
+      <c r="B494">
+        <v>-76</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A495" s="2">
+        <v>493</v>
+      </c>
+      <c r="B495">
+        <v>-132</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A496" s="2">
+        <v>494</v>
+      </c>
+      <c r="B496">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A497" s="2">
+        <v>495</v>
+      </c>
+      <c r="B497">
+        <v>-71</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A498" s="2">
+        <v>496</v>
+      </c>
+      <c r="B498">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A499" s="2">
+        <v>497</v>
+      </c>
+      <c r="B499">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A500" s="2">
+        <v>498</v>
+      </c>
+      <c r="B500">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A501" s="2">
+        <v>499</v>
+      </c>
+      <c r="B501">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A502" s="2">
+        <v>500</v>
+      </c>
+      <c r="B502">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A503" s="2">
+        <v>501</v>
+      </c>
+      <c r="B503">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A504" s="2">
+        <v>502</v>
+      </c>
+      <c r="B504">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A505" s="2">
+        <v>503</v>
+      </c>
+      <c r="B505">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A506" s="2">
+        <v>504</v>
+      </c>
+      <c r="B506">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A507" s="2">
+        <v>505</v>
+      </c>
+      <c r="B507">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A508" s="2">
+        <v>506</v>
+      </c>
+      <c r="B508">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A509" s="2">
+        <v>507</v>
+      </c>
+      <c r="B509">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A510" s="2">
+        <v>508</v>
+      </c>
+      <c r="B510">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A511" s="2">
+        <v>509</v>
+      </c>
+      <c r="B511">
+        <v>-148</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A512" s="2">
+        <v>510</v>
+      </c>
+      <c r="B512">
+        <v>-272</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A513" s="2">
+        <v>511</v>
+      </c>
+      <c r="B513">
+        <v>-371</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A514" s="2">
+        <v>512</v>
+      </c>
+      <c r="B514">
+        <v>-438</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A515" s="2">
+        <v>513</v>
+      </c>
+      <c r="B515">
+        <v>-426</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A516" s="2">
+        <v>514</v>
+      </c>
+      <c r="B516">
+        <v>-309</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A517" s="2">
+        <v>515</v>
+      </c>
+      <c r="B517">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A518" s="2">
+        <v>516</v>
+      </c>
+      <c r="B518">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A519" s="2">
+        <v>517</v>
+      </c>
+      <c r="B519">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A520" s="2">
+        <v>518</v>
+      </c>
+      <c r="B520">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A521" s="2">
+        <v>519</v>
+      </c>
+      <c r="B521">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A522" s="2">
+        <v>520</v>
+      </c>
+      <c r="B522">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A523" s="2">
+        <v>521</v>
+      </c>
+      <c r="B523">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A524" s="2">
+        <v>522</v>
+      </c>
+      <c r="B524">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A525" s="2">
+        <v>523</v>
+      </c>
+      <c r="B525">
+        <v>-309</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A526" s="2">
+        <v>524</v>
+      </c>
+      <c r="B526">
+        <v>-452</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A527" s="2">
+        <v>525</v>
+      </c>
+      <c r="B527">
+        <v>-417</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A528" s="2">
+        <v>526</v>
+      </c>
+      <c r="B528">
+        <v>-239</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A529" s="2">
+        <v>527</v>
+      </c>
+      <c r="B529">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A530" s="2">
+        <v>528</v>
+      </c>
+      <c r="B530">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A531" s="2">
+        <v>529</v>
+      </c>
+      <c r="B531">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A532" s="2">
+        <v>530</v>
+      </c>
+      <c r="B532">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A533" s="2">
+        <v>531</v>
+      </c>
+      <c r="B533">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A534" s="2">
+        <v>532</v>
+      </c>
+      <c r="B534">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A535" s="2">
+        <v>533</v>
+      </c>
+      <c r="B535">
+        <v>-107</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A536" s="2">
+        <v>534</v>
+      </c>
+      <c r="B536">
+        <v>-183</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A537" s="2">
+        <v>535</v>
+      </c>
+      <c r="B537">
+        <v>-174</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A538" s="2">
+        <v>536</v>
+      </c>
+      <c r="B538">
+        <v>-86</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A539" s="2">
+        <v>537</v>
+      </c>
+      <c r="B539">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A540" s="2">
+        <v>538</v>
+      </c>
+      <c r="B540">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A541" s="2">
+        <v>539</v>
+      </c>
+      <c r="B541">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A542" s="2">
+        <v>540</v>
+      </c>
+      <c r="B542">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A543" s="2">
+        <v>541</v>
+      </c>
+      <c r="B543">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A544" s="2">
+        <v>542</v>
+      </c>
+      <c r="B544">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A545" s="2">
+        <v>543</v>
+      </c>
+      <c r="B545">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A546" s="2">
+        <v>544</v>
+      </c>
+      <c r="B546">
+        <v>-44</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A547" s="2">
+        <v>545</v>
+      </c>
+      <c r="B547">
+        <v>-89</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A548" s="2">
+        <v>546</v>
+      </c>
+      <c r="B548">
+        <v>-97</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A549" s="2">
+        <v>547</v>
+      </c>
+      <c r="B549">
+        <v>-79</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A550" s="2">
+        <v>548</v>
+      </c>
+      <c r="B550">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A551" s="2">
+        <v>549</v>
+      </c>
+      <c r="B551">
+        <v>-44</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A552" s="2">
+        <v>550</v>
+      </c>
+      <c r="B552">
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A553" s="2">
+        <v>551</v>
+      </c>
+      <c r="B553">
+        <v>-79</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A554" s="2">
+        <v>552</v>
+      </c>
+      <c r="B554">
+        <v>-104</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A555" s="2">
+        <v>553</v>
+      </c>
+      <c r="B555">
+        <v>-84</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A556" s="2">
+        <v>554</v>
+      </c>
+      <c r="B556">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A557" s="2">
+        <v>555</v>
+      </c>
+      <c r="B557">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A558" s="2">
+        <v>556</v>
+      </c>
+      <c r="B558">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A559" s="2">
+        <v>557</v>
+      </c>
+      <c r="B559">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A560" s="2">
+        <v>558</v>
+      </c>
+      <c r="B560">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A561" s="2">
+        <v>559</v>
+      </c>
+      <c r="B561">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A562" s="2">
+        <v>560</v>
+      </c>
+      <c r="B562">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A563" s="2">
+        <v>561</v>
+      </c>
+      <c r="B563">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A564" s="2">
+        <v>562</v>
+      </c>
+      <c r="B564">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A565" s="2">
+        <v>563</v>
+      </c>
+      <c r="B565">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A566" s="2">
+        <v>564</v>
+      </c>
+      <c r="B566">
+        <v>-496</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A567" s="2">
+        <v>565</v>
+      </c>
+      <c r="B567">
+        <v>-602</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A568" s="2">
+        <v>566</v>
+      </c>
+      <c r="B568">
+        <v>-541</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A569" s="2">
+        <v>567</v>
+      </c>
+      <c r="B569">
+        <v>-339</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A570" s="2">
+        <v>568</v>
+      </c>
+      <c r="B570">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A571" s="2">
+        <v>569</v>
+      </c>
+      <c r="B571">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A572" s="2">
+        <v>570</v>
+      </c>
+      <c r="B572">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A573" s="2">
+        <v>571</v>
+      </c>
+      <c r="B573">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A574" s="2">
+        <v>572</v>
+      </c>
+      <c r="B574">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A575" s="2">
+        <v>573</v>
+      </c>
+      <c r="B575">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A576" s="2">
+        <v>574</v>
+      </c>
+      <c r="B576">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A577" s="2">
+        <v>575</v>
+      </c>
+      <c r="B577">
+        <v>-133</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A578" s="2">
+        <v>576</v>
+      </c>
+      <c r="B578">
+        <v>-132</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A579" s="2">
+        <v>577</v>
+      </c>
+      <c r="B579">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A580" s="2">
+        <v>578</v>
+      </c>
+      <c r="B580">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A581" s="2">
+        <v>579</v>
+      </c>
+      <c r="B581">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A582" s="2">
+        <v>580</v>
+      </c>
+      <c r="B582">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A583" s="2">
+        <v>581</v>
+      </c>
+      <c r="B583">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A584" s="2">
+        <v>582</v>
+      </c>
+      <c r="B584">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A585" s="2">
+        <v>583</v>
+      </c>
+      <c r="B585">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A586" s="2">
+        <v>584</v>
+      </c>
+      <c r="B586">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A587" s="2">
+        <v>585</v>
+      </c>
+      <c r="B587">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A588" s="2">
+        <v>586</v>
+      </c>
+      <c r="B588">
+        <v>-112</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A589" s="2">
+        <v>587</v>
+      </c>
+      <c r="B589">
+        <v>-93</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A590" s="2">
+        <v>588</v>
+      </c>
+      <c r="B590">
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A591" s="2">
+        <v>589</v>
+      </c>
+      <c r="B591">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A592" s="2">
+        <v>590</v>
+      </c>
+      <c r="B592">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A593" s="2">
+        <v>591</v>
+      </c>
+      <c r="B593">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A594" s="2">
+        <v>592</v>
+      </c>
+      <c r="B594">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A595" s="2">
+        <v>593</v>
+      </c>
+      <c r="B595">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A596" s="2">
+        <v>594</v>
+      </c>
+      <c r="B596">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A597" s="2">
+        <v>595</v>
+      </c>
+      <c r="B597">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A598" s="2">
+        <v>596</v>
+      </c>
+      <c r="B598">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A599" s="2">
+        <v>597</v>
+      </c>
+      <c r="B599">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A600" s="2">
+        <v>598</v>
+      </c>
+      <c r="B600">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A601" s="2">
+        <v>599</v>
+      </c>
+      <c r="B601">
+        <v>176</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2307,10 +5357,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11173DA4-9C00-4D84-8564-F3FF0CFDF086}">
-  <dimension ref="A1:T301"/>
+  <dimension ref="A1:T601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A192" sqref="A192:I601"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3858,334 +6908,3394 @@
       <c r="T191" s="2"/>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A192" s="2">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>233</v>
+      </c>
       <c r="T192" s="2"/>
     </row>
-    <row r="193" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A193" s="2">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>-94</v>
+      </c>
       <c r="T193" s="2"/>
     </row>
-    <row r="194" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A194" s="2">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>-443</v>
+      </c>
       <c r="T194" s="2"/>
     </row>
-    <row r="195" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A195" s="2">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>-738</v>
+      </c>
       <c r="T195" s="2"/>
     </row>
-    <row r="196" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A196" s="2">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>-885</v>
+      </c>
       <c r="T196" s="2"/>
     </row>
-    <row r="197" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A197" s="2">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>-822</v>
+      </c>
       <c r="T197" s="2"/>
     </row>
-    <row r="198" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A198" s="2">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>-546</v>
+      </c>
       <c r="T198" s="2"/>
     </row>
-    <row r="199" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A199" s="2">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>-111</v>
+      </c>
       <c r="T199" s="2"/>
     </row>
-    <row r="200" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A200" s="2">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>366</v>
+      </c>
       <c r="T200" s="2"/>
     </row>
-    <row r="201" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A201" s="2">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>751</v>
+      </c>
       <c r="T201" s="2"/>
     </row>
-    <row r="202" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A202" s="2">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>936</v>
+      </c>
       <c r="T202" s="2"/>
     </row>
-    <row r="203" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A203" s="2">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>886</v>
+      </c>
       <c r="T203" s="2"/>
     </row>
-    <row r="204" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A204" s="2">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>626</v>
+      </c>
       <c r="T204" s="2"/>
     </row>
-    <row r="205" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A205" s="2">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>236</v>
+      </c>
       <c r="T205" s="2"/>
     </row>
-    <row r="206" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A206" s="2">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>-177</v>
+      </c>
       <c r="T206" s="2"/>
     </row>
-    <row r="207" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A207" s="2">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>-504</v>
+      </c>
       <c r="T207" s="2"/>
     </row>
-    <row r="208" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A208" s="2">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>-664</v>
+      </c>
       <c r="T208" s="2"/>
     </row>
-    <row r="209" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A209" s="2">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>-612</v>
+      </c>
       <c r="T209" s="2"/>
     </row>
-    <row r="210" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A210" s="2">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>-370</v>
+      </c>
       <c r="T210" s="2"/>
     </row>
-    <row r="211" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A211" s="2">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>-8</v>
+      </c>
       <c r="T211" s="2"/>
     </row>
-    <row r="212" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A212" s="2">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>355</v>
+      </c>
       <c r="T212" s="2"/>
     </row>
-    <row r="213" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A213" s="2">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>606</v>
+      </c>
       <c r="T213" s="2"/>
     </row>
-    <row r="214" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A214" s="2">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>684</v>
+      </c>
       <c r="T214" s="2"/>
     </row>
-    <row r="215" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A215" s="2">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>579</v>
+      </c>
       <c r="T215" s="2"/>
     </row>
-    <row r="216" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A216" s="2">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>341</v>
+      </c>
       <c r="T216" s="2"/>
     </row>
-    <row r="217" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A217" s="2">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>37</v>
+      </c>
       <c r="T217" s="2"/>
     </row>
-    <row r="218" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A218" s="2">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>-246</v>
+      </c>
       <c r="T218" s="2"/>
     </row>
-    <row r="219" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A219" s="2">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>-424</v>
+      </c>
       <c r="T219" s="2"/>
     </row>
-    <row r="220" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A220" s="2">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>-451</v>
+      </c>
       <c r="T220" s="2"/>
     </row>
-    <row r="221" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A221" s="2">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>-331</v>
+      </c>
       <c r="T221" s="2"/>
     </row>
-    <row r="222" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A222" s="2">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>-101</v>
+      </c>
       <c r="T222" s="2"/>
     </row>
-    <row r="223" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A223" s="2">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>162</v>
+      </c>
       <c r="T223" s="2"/>
     </row>
-    <row r="224" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A224" s="2">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>384</v>
+      </c>
       <c r="T224" s="2"/>
     </row>
-    <row r="225" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A225" s="2">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>503</v>
+      </c>
       <c r="T225" s="2"/>
     </row>
-    <row r="226" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A226" s="2">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>497</v>
+      </c>
       <c r="T226" s="2"/>
     </row>
-    <row r="227" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A227" s="2">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>390</v>
+      </c>
       <c r="T227" s="2"/>
     </row>
-    <row r="228" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A228" s="2">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>227</v>
+      </c>
       <c r="T228" s="2"/>
     </row>
-    <row r="229" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A229" s="2">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>64</v>
+      </c>
       <c r="T229" s="2"/>
     </row>
-    <row r="230" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A230" s="2">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>-64</v>
+      </c>
       <c r="T230" s="2"/>
     </row>
-    <row r="231" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A231" s="2">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>-140</v>
+      </c>
       <c r="T231" s="2"/>
     </row>
-    <row r="232" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A232" s="2">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>-181</v>
+      </c>
       <c r="T232" s="2"/>
     </row>
-    <row r="233" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A233" s="2">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>-224</v>
+      </c>
       <c r="T233" s="2"/>
     </row>
-    <row r="234" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A234" s="2">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>-283</v>
+      </c>
       <c r="T234" s="2"/>
     </row>
-    <row r="235" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A235" s="2">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>-355</v>
+      </c>
       <c r="T235" s="2"/>
     </row>
-    <row r="236" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A236" s="2">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>-397</v>
+      </c>
       <c r="T236" s="2"/>
     </row>
-    <row r="237" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A237" s="2">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>-353</v>
+      </c>
       <c r="T237" s="2"/>
     </row>
-    <row r="238" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A238" s="2">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>-184</v>
+      </c>
       <c r="T238" s="2"/>
     </row>
-    <row r="239" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A239" s="2">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>100</v>
+      </c>
       <c r="T239" s="2"/>
     </row>
-    <row r="240" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A240" s="2">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>436</v>
+      </c>
       <c r="T240" s="2"/>
     </row>
-    <row r="241" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A241" s="2">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>727</v>
+      </c>
       <c r="T241" s="2"/>
     </row>
-    <row r="242" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A242" s="2">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>892</v>
+      </c>
       <c r="T242" s="2"/>
     </row>
-    <row r="243" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A243" s="2">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>873</v>
+      </c>
       <c r="T243" s="2"/>
     </row>
-    <row r="244" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A244" s="2">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>668</v>
+      </c>
       <c r="T244" s="2"/>
     </row>
-    <row r="245" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A245" s="2">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>320</v>
+      </c>
       <c r="T245" s="2"/>
     </row>
-    <row r="246" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A246" s="2">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>-85</v>
+      </c>
       <c r="T246" s="2"/>
     </row>
-    <row r="247" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A247" s="2">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>-445</v>
+      </c>
       <c r="T247" s="2"/>
     </row>
-    <row r="248" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A248" s="2">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>-679</v>
+      </c>
       <c r="T248" s="2"/>
     </row>
-    <row r="249" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A249" s="2">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>-723</v>
+      </c>
       <c r="T249" s="2"/>
     </row>
-    <row r="250" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A250" s="2">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>-561</v>
+      </c>
       <c r="T250" s="2"/>
     </row>
-    <row r="251" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A251" s="2">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>-246</v>
+      </c>
       <c r="T251" s="2"/>
     </row>
-    <row r="252" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A252" s="2">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>132</v>
+      </c>
       <c r="T252" s="2"/>
     </row>
-    <row r="253" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A253" s="2">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>463</v>
+      </c>
       <c r="T253" s="2"/>
     </row>
-    <row r="254" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A254" s="2">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>651</v>
+      </c>
       <c r="T254" s="2"/>
     </row>
-    <row r="255" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A255" s="2">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>655</v>
+      </c>
       <c r="T255" s="2"/>
     </row>
-    <row r="256" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A256" s="2">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>490</v>
+      </c>
       <c r="T256" s="2"/>
     </row>
-    <row r="257" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A257" s="2">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>218</v>
+      </c>
       <c r="T257" s="2"/>
     </row>
-    <row r="258" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A258" s="2">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>-82</v>
+      </c>
       <c r="T258" s="2"/>
     </row>
-    <row r="259" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A259" s="2">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>-321</v>
+      </c>
       <c r="T259" s="2"/>
     </row>
-    <row r="260" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A260" s="2">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>-439</v>
+      </c>
       <c r="T260" s="2"/>
     </row>
-    <row r="261" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A261" s="2">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>-410</v>
+      </c>
       <c r="T261" s="2"/>
     </row>
-    <row r="262" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A262" s="2">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>-245</v>
+      </c>
       <c r="T262" s="2"/>
     </row>
-    <row r="263" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A263" s="2">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>-1</v>
+      </c>
       <c r="T263" s="2"/>
     </row>
-    <row r="264" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A264" s="2">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>240</v>
+      </c>
       <c r="T264" s="2"/>
     </row>
-    <row r="265" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A265" s="2">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>410</v>
+      </c>
       <c r="T265" s="2"/>
     </row>
-    <row r="266" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A266" s="2">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>460</v>
+      </c>
       <c r="T266" s="2"/>
     </row>
-    <row r="267" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A267" s="2">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>388</v>
+      </c>
       <c r="T267" s="2"/>
     </row>
-    <row r="268" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A268" s="2">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>223</v>
+      </c>
       <c r="T268" s="2"/>
     </row>
-    <row r="269" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A269" s="2">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>23</v>
+      </c>
       <c r="T269" s="2"/>
     </row>
-    <row r="270" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A270" s="2">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>-161</v>
+      </c>
       <c r="T270" s="2"/>
     </row>
-    <row r="271" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A271" s="2">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>-276</v>
+      </c>
       <c r="T271" s="2"/>
     </row>
-    <row r="272" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A272" s="2">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>-294</v>
+      </c>
       <c r="T272" s="2"/>
     </row>
-    <row r="273" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A273" s="2">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>-223</v>
+      </c>
       <c r="T273" s="2"/>
     </row>
-    <row r="274" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A274" s="2">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>-94</v>
+      </c>
       <c r="T274" s="2"/>
     </row>
-    <row r="275" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A275" s="2">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>38</v>
+      </c>
       <c r="T275" s="2"/>
     </row>
-    <row r="276" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A276" s="2">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>143</v>
+      </c>
       <c r="T276" s="2"/>
     </row>
-    <row r="277" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A277" s="2">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>211</v>
+      </c>
       <c r="T277" s="2"/>
     </row>
-    <row r="278" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A278" s="2">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>251</v>
+      </c>
       <c r="T278" s="2"/>
     </row>
-    <row r="279" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A279" s="2">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>288</v>
+      </c>
       <c r="T279" s="2"/>
     </row>
-    <row r="280" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A280" s="2">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>345</v>
+      </c>
       <c r="T280" s="2"/>
     </row>
-    <row r="281" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A281" s="2">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>407</v>
+      </c>
       <c r="T281" s="2"/>
     </row>
-    <row r="282" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A282" s="2">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>446</v>
+      </c>
       <c r="T282" s="2"/>
     </row>
-    <row r="283" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A283" s="2">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>414</v>
+      </c>
       <c r="T283" s="2"/>
     </row>
-    <row r="284" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A284" s="2">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>284</v>
+      </c>
       <c r="T284" s="2"/>
     </row>
-    <row r="285" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A285" s="2">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>72</v>
+      </c>
       <c r="T285" s="2"/>
     </row>
-    <row r="286" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A286" s="2">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>-184</v>
+      </c>
       <c r="T286" s="2"/>
     </row>
-    <row r="287" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A287" s="2">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>-429</v>
+      </c>
       <c r="T287" s="2"/>
     </row>
-    <row r="288" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A288" s="2">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>-602</v>
+      </c>
       <c r="T288" s="2"/>
     </row>
-    <row r="289" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A289" s="2">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>-650</v>
+      </c>
       <c r="T289" s="2"/>
     </row>
-    <row r="290" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A290" s="2">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>-546</v>
+      </c>
       <c r="T290" s="2"/>
     </row>
-    <row r="291" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A291" s="2">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>-299</v>
+      </c>
       <c r="T291" s="2"/>
     </row>
-    <row r="292" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A292" s="2">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>30</v>
+      </c>
       <c r="T292" s="2"/>
     </row>
-    <row r="293" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A293" s="2">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <v>356</v>
+      </c>
       <c r="T293" s="2"/>
     </row>
-    <row r="294" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A294" s="2">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>596</v>
+      </c>
       <c r="T294" s="2"/>
     </row>
-    <row r="295" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A295" s="2">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>690</v>
+      </c>
       <c r="T295" s="2"/>
     </row>
-    <row r="296" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A296" s="2">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>633</v>
+      </c>
       <c r="T296" s="2"/>
     </row>
-    <row r="297" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A297" s="2">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>433</v>
+      </c>
       <c r="T297" s="2"/>
     </row>
-    <row r="298" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A298" s="2">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>158</v>
+      </c>
       <c r="T298" s="2"/>
     </row>
-    <row r="299" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A299" s="2">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <v>-120</v>
+      </c>
       <c r="T299" s="2"/>
     </row>
-    <row r="300" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A300" s="2">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>-321</v>
+      </c>
       <c r="T300" s="2"/>
     </row>
-    <row r="301" spans="20:20" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A301" s="2">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <v>-400</v>
+      </c>
       <c r="T301" s="2"/>
+    </row>
+    <row r="302" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A302" s="2">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <v>-340</v>
+      </c>
+    </row>
+    <row r="303" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A303" s="2">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <v>-168</v>
+      </c>
+    </row>
+    <row r="304" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A304" s="2">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A305" s="2">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A306" s="2">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A307" s="2">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A308" s="2">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A309" s="2">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A310" s="2">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A311" s="2">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <v>-167</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A312" s="2">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <v>-226</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A313" s="2">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <v>-191</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A314" s="2">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <v>-79</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A315" s="2">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A316" s="2">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A317" s="2">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A318" s="2">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A319" s="2">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A320" s="2">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A321" s="2">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A322" s="2">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A323" s="2">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A324" s="2">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A325" s="2">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A326" s="2">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>-168</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A327" s="2">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>-248</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A328" s="2">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>-324</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A329" s="2">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>-347</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A330" s="2">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>-272</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A331" s="2">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>-93</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A332" s="2">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A333" s="2">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A334" s="2">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A335" s="2">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A336" s="2">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A337" s="2">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A338" s="2">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A339" s="2">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>-102</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A340" s="2">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>-390</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A341" s="2">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>-561</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A342" s="2">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <v>-569</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A343" s="2">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <v>-421</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A344" s="2">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <v>-162</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A345" s="2">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A346" s="2">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A347" s="2">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A348" s="2">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A349" s="2">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A350" s="2">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A351" s="2">
+        <v>349</v>
+      </c>
+      <c r="B351">
+        <v>-85</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A352" s="2">
+        <v>350</v>
+      </c>
+      <c r="B352">
+        <v>-240</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A353" s="2">
+        <v>351</v>
+      </c>
+      <c r="B353">
+        <v>-291</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A354" s="2">
+        <v>352</v>
+      </c>
+      <c r="B354">
+        <v>-237</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A355" s="2">
+        <v>353</v>
+      </c>
+      <c r="B355">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A356" s="2">
+        <v>354</v>
+      </c>
+      <c r="B356">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A357" s="2">
+        <v>355</v>
+      </c>
+      <c r="B357">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A358" s="2">
+        <v>356</v>
+      </c>
+      <c r="B358">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A359" s="2">
+        <v>357</v>
+      </c>
+      <c r="B359">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A360" s="2">
+        <v>358</v>
+      </c>
+      <c r="B360">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A361" s="2">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A362" s="2">
+        <v>360</v>
+      </c>
+      <c r="B362">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A363" s="2">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <v>-131</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A364" s="2">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <v>-185</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A365" s="2">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>-183</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A366" s="2">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>-129</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A367" s="2">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <v>-56</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A368" s="2">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A369" s="2">
+        <v>367</v>
+      </c>
+      <c r="B369">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A370" s="2">
+        <v>368</v>
+      </c>
+      <c r="B370">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A371" s="2">
+        <v>369</v>
+      </c>
+      <c r="B371">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A372" s="2">
+        <v>370</v>
+      </c>
+      <c r="B372">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A373" s="2">
+        <v>371</v>
+      </c>
+      <c r="B373">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A374" s="2">
+        <v>372</v>
+      </c>
+      <c r="B374">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A375" s="2">
+        <v>373</v>
+      </c>
+      <c r="B375">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A376" s="2">
+        <v>374</v>
+      </c>
+      <c r="B376">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A377" s="2">
+        <v>375</v>
+      </c>
+      <c r="B377">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A378" s="2">
+        <v>376</v>
+      </c>
+      <c r="B378">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A379" s="2">
+        <v>377</v>
+      </c>
+      <c r="B379">
+        <v>-235</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A380" s="2">
+        <v>378</v>
+      </c>
+      <c r="B380">
+        <v>-452</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A381" s="2">
+        <v>379</v>
+      </c>
+      <c r="B381">
+        <v>-578</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A382" s="2">
+        <v>380</v>
+      </c>
+      <c r="B382">
+        <v>-585</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A383" s="2">
+        <v>381</v>
+      </c>
+      <c r="B383">
+        <v>-460</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A384" s="2">
+        <v>382</v>
+      </c>
+      <c r="B384">
+        <v>-235</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A385" s="2">
+        <v>383</v>
+      </c>
+      <c r="B385">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A386" s="2">
+        <v>384</v>
+      </c>
+      <c r="B386">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A387" s="2">
+        <v>385</v>
+      </c>
+      <c r="B387">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A388" s="2">
+        <v>386</v>
+      </c>
+      <c r="B388">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A389" s="2">
+        <v>387</v>
+      </c>
+      <c r="B389">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A390" s="2">
+        <v>388</v>
+      </c>
+      <c r="B390">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A391" s="2">
+        <v>389</v>
+      </c>
+      <c r="B391">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A392" s="2">
+        <v>390</v>
+      </c>
+      <c r="B392">
+        <v>-89</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A393" s="2">
+        <v>391</v>
+      </c>
+      <c r="B393">
+        <v>-230</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A394" s="2">
+        <v>392</v>
+      </c>
+      <c r="B394">
+        <v>-265</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A395" s="2">
+        <v>393</v>
+      </c>
+      <c r="B395">
+        <v>-201</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A396" s="2">
+        <v>394</v>
+      </c>
+      <c r="B396">
+        <v>-63</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A397" s="2">
+        <v>395</v>
+      </c>
+      <c r="B397">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A398" s="2">
+        <v>396</v>
+      </c>
+      <c r="B398">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A399" s="2">
+        <v>397</v>
+      </c>
+      <c r="B399">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A400" s="2">
+        <v>398</v>
+      </c>
+      <c r="B400">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A401" s="2">
+        <v>399</v>
+      </c>
+      <c r="B401">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A402" s="2">
+        <v>400</v>
+      </c>
+      <c r="B402">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A403" s="2">
+        <v>401</v>
+      </c>
+      <c r="B403">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A404" s="2">
+        <v>402</v>
+      </c>
+      <c r="B404">
+        <v>-141</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A405" s="2">
+        <v>403</v>
+      </c>
+      <c r="B405">
+        <v>-164</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A406" s="2">
+        <v>404</v>
+      </c>
+      <c r="B406">
+        <v>-115</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A407" s="2">
+        <v>405</v>
+      </c>
+      <c r="B407">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A408" s="2">
+        <v>406</v>
+      </c>
+      <c r="B408">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A409" s="2">
+        <v>407</v>
+      </c>
+      <c r="B409">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A410" s="2">
+        <v>408</v>
+      </c>
+      <c r="B410">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A411" s="2">
+        <v>409</v>
+      </c>
+      <c r="B411">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A412" s="2">
+        <v>410</v>
+      </c>
+      <c r="B412">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A413" s="2">
+        <v>411</v>
+      </c>
+      <c r="B413">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A414" s="2">
+        <v>412</v>
+      </c>
+      <c r="B414">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A415" s="2">
+        <v>413</v>
+      </c>
+      <c r="B415">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A416" s="2">
+        <v>414</v>
+      </c>
+      <c r="B416">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A417" s="2">
+        <v>415</v>
+      </c>
+      <c r="B417">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A418" s="2">
+        <v>416</v>
+      </c>
+      <c r="B418">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A419" s="2">
+        <v>417</v>
+      </c>
+      <c r="B419">
+        <v>-239</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A420" s="2">
+        <v>418</v>
+      </c>
+      <c r="B420">
+        <v>-322</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A421" s="2">
+        <v>419</v>
+      </c>
+      <c r="B421">
+        <v>-380</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A422" s="2">
+        <v>420</v>
+      </c>
+      <c r="B422">
+        <v>-373</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A423" s="2">
+        <v>421</v>
+      </c>
+      <c r="B423">
+        <v>-274</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A424" s="2">
+        <v>422</v>
+      </c>
+      <c r="B424">
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A425" s="2">
+        <v>423</v>
+      </c>
+      <c r="B425">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A426" s="2">
+        <v>424</v>
+      </c>
+      <c r="B426">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A427" s="2">
+        <v>425</v>
+      </c>
+      <c r="B427">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A428" s="2">
+        <v>426</v>
+      </c>
+      <c r="B428">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A429" s="2">
+        <v>427</v>
+      </c>
+      <c r="B429">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A430" s="2">
+        <v>428</v>
+      </c>
+      <c r="B430">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A431" s="2">
+        <v>429</v>
+      </c>
+      <c r="B431">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A432" s="2">
+        <v>430</v>
+      </c>
+      <c r="B432">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A433" s="2">
+        <v>431</v>
+      </c>
+      <c r="B433">
+        <v>-325</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A434" s="2">
+        <v>432</v>
+      </c>
+      <c r="B434">
+        <v>-495</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A435" s="2">
+        <v>433</v>
+      </c>
+      <c r="B435">
+        <v>-511</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A436" s="2">
+        <v>434</v>
+      </c>
+      <c r="B436">
+        <v>-380</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A437" s="2">
+        <v>435</v>
+      </c>
+      <c r="B437">
+        <v>-152</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A438" s="2">
+        <v>436</v>
+      </c>
+      <c r="B438">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A439" s="2">
+        <v>437</v>
+      </c>
+      <c r="B439">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A440" s="2">
+        <v>438</v>
+      </c>
+      <c r="B440">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A441" s="2">
+        <v>439</v>
+      </c>
+      <c r="B441">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A442" s="2">
+        <v>440</v>
+      </c>
+      <c r="B442">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A443" s="2">
+        <v>441</v>
+      </c>
+      <c r="B443">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A444" s="2">
+        <v>442</v>
+      </c>
+      <c r="B444">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A445" s="2">
+        <v>443</v>
+      </c>
+      <c r="B445">
+        <v>-170</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A446" s="2">
+        <v>444</v>
+      </c>
+      <c r="B446">
+        <v>-160</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A447" s="2">
+        <v>445</v>
+      </c>
+      <c r="B447">
+        <v>-78</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A448" s="2">
+        <v>446</v>
+      </c>
+      <c r="B448">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A449" s="2">
+        <v>447</v>
+      </c>
+      <c r="B449">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A450" s="2">
+        <v>448</v>
+      </c>
+      <c r="B450">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A451" s="2">
+        <v>449</v>
+      </c>
+      <c r="B451">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A452" s="2">
+        <v>450</v>
+      </c>
+      <c r="B452">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A453" s="2">
+        <v>451</v>
+      </c>
+      <c r="B453">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A454" s="2">
+        <v>452</v>
+      </c>
+      <c r="B454">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A455" s="2">
+        <v>453</v>
+      </c>
+      <c r="B455">
+        <v>-86</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A456" s="2">
+        <v>454</v>
+      </c>
+      <c r="B456">
+        <v>-132</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A457" s="2">
+        <v>455</v>
+      </c>
+      <c r="B457">
+        <v>-136</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A458" s="2">
+        <v>456</v>
+      </c>
+      <c r="B458">
+        <v>-109</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A459" s="2">
+        <v>457</v>
+      </c>
+      <c r="B459">
+        <v>-69</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A460" s="2">
+        <v>458</v>
+      </c>
+      <c r="B460">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A461" s="2">
+        <v>459</v>
+      </c>
+      <c r="B461">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A462" s="2">
+        <v>460</v>
+      </c>
+      <c r="B462">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A463" s="2">
+        <v>461</v>
+      </c>
+      <c r="B463">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A464" s="2">
+        <v>462</v>
+      </c>
+      <c r="B464">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A465" s="2">
+        <v>463</v>
+      </c>
+      <c r="B465">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A466" s="2">
+        <v>464</v>
+      </c>
+      <c r="B466">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A467" s="2">
+        <v>465</v>
+      </c>
+      <c r="B467">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A468" s="2">
+        <v>466</v>
+      </c>
+      <c r="B468">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A469" s="2">
+        <v>467</v>
+      </c>
+      <c r="B469">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A470" s="2">
+        <v>468</v>
+      </c>
+      <c r="B470">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A471" s="2">
+        <v>469</v>
+      </c>
+      <c r="B471">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A472" s="2">
+        <v>470</v>
+      </c>
+      <c r="B472">
+        <v>-223</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A473" s="2">
+        <v>471</v>
+      </c>
+      <c r="B473">
+        <v>-468</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A474" s="2">
+        <v>472</v>
+      </c>
+      <c r="B474">
+        <v>-601</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A475" s="2">
+        <v>473</v>
+      </c>
+      <c r="B475">
+        <v>-598</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A476" s="2">
+        <v>474</v>
+      </c>
+      <c r="B476">
+        <v>-468</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A477" s="2">
+        <v>475</v>
+      </c>
+      <c r="B477">
+        <v>-251</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A478" s="2">
+        <v>476</v>
+      </c>
+      <c r="B478">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A479" s="2">
+        <v>477</v>
+      </c>
+      <c r="B479">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A480" s="2">
+        <v>478</v>
+      </c>
+      <c r="B480">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A481" s="2">
+        <v>479</v>
+      </c>
+      <c r="B481">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A482" s="2">
+        <v>480</v>
+      </c>
+      <c r="B482">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A483" s="2">
+        <v>481</v>
+      </c>
+      <c r="B483">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A484" s="2">
+        <v>482</v>
+      </c>
+      <c r="B484">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A485" s="2">
+        <v>483</v>
+      </c>
+      <c r="B485">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A486" s="2">
+        <v>484</v>
+      </c>
+      <c r="B486">
+        <v>-122</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A487" s="2">
+        <v>485</v>
+      </c>
+      <c r="B487">
+        <v>-131</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A488" s="2">
+        <v>486</v>
+      </c>
+      <c r="B488">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A489" s="2">
+        <v>487</v>
+      </c>
+      <c r="B489">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A490" s="2">
+        <v>488</v>
+      </c>
+      <c r="B490">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A491" s="2">
+        <v>489</v>
+      </c>
+      <c r="B491">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A492" s="2">
+        <v>490</v>
+      </c>
+      <c r="B492">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A493" s="2">
+        <v>491</v>
+      </c>
+      <c r="B493">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A494" s="2">
+        <v>492</v>
+      </c>
+      <c r="B494">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A495" s="2">
+        <v>493</v>
+      </c>
+      <c r="B495">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A496" s="2">
+        <v>494</v>
+      </c>
+      <c r="B496">
+        <v>-79</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A497" s="2">
+        <v>495</v>
+      </c>
+      <c r="B497">
+        <v>-111</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A498" s="2">
+        <v>496</v>
+      </c>
+      <c r="B498">
+        <v>-89</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A499" s="2">
+        <v>497</v>
+      </c>
+      <c r="B499">
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A500" s="2">
+        <v>498</v>
+      </c>
+      <c r="B500">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A501" s="2">
+        <v>499</v>
+      </c>
+      <c r="B501">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A502" s="2">
+        <v>500</v>
+      </c>
+      <c r="B502">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A503" s="2">
+        <v>501</v>
+      </c>
+      <c r="B503">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A504" s="2">
+        <v>502</v>
+      </c>
+      <c r="B504">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A505" s="2">
+        <v>503</v>
+      </c>
+      <c r="B505">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A506" s="2">
+        <v>504</v>
+      </c>
+      <c r="B506">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A507" s="2">
+        <v>505</v>
+      </c>
+      <c r="B507">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A508" s="2">
+        <v>506</v>
+      </c>
+      <c r="B508">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A509" s="2">
+        <v>507</v>
+      </c>
+      <c r="B509">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A510" s="2">
+        <v>508</v>
+      </c>
+      <c r="B510">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A511" s="2">
+        <v>509</v>
+      </c>
+      <c r="B511">
+        <v>-143</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A512" s="2">
+        <v>510</v>
+      </c>
+      <c r="B512">
+        <v>-244</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A513" s="2">
+        <v>511</v>
+      </c>
+      <c r="B513">
+        <v>-331</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A514" s="2">
+        <v>512</v>
+      </c>
+      <c r="B514">
+        <v>-385</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A515" s="2">
+        <v>513</v>
+      </c>
+      <c r="B515">
+        <v>-375</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A516" s="2">
+        <v>514</v>
+      </c>
+      <c r="B516">
+        <v>-267</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A517" s="2">
+        <v>515</v>
+      </c>
+      <c r="B517">
+        <v>-62</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A518" s="2">
+        <v>516</v>
+      </c>
+      <c r="B518">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A519" s="2">
+        <v>517</v>
+      </c>
+      <c r="B519">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A520" s="2">
+        <v>518</v>
+      </c>
+      <c r="B520">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A521" s="2">
+        <v>519</v>
+      </c>
+      <c r="B521">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A522" s="2">
+        <v>520</v>
+      </c>
+      <c r="B522">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A523" s="2">
+        <v>521</v>
+      </c>
+      <c r="B523">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A524" s="2">
+        <v>522</v>
+      </c>
+      <c r="B524">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A525" s="2">
+        <v>523</v>
+      </c>
+      <c r="B525">
+        <v>-67</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A526" s="2">
+        <v>524</v>
+      </c>
+      <c r="B526">
+        <v>-314</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A527" s="2">
+        <v>525</v>
+      </c>
+      <c r="B527">
+        <v>-441</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A528" s="2">
+        <v>526</v>
+      </c>
+      <c r="B528">
+        <v>-425</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A529" s="2">
+        <v>527</v>
+      </c>
+      <c r="B529">
+        <v>-281</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A530" s="2">
+        <v>528</v>
+      </c>
+      <c r="B530">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A531" s="2">
+        <v>529</v>
+      </c>
+      <c r="B531">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A532" s="2">
+        <v>530</v>
+      </c>
+      <c r="B532">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A533" s="2">
+        <v>531</v>
+      </c>
+      <c r="B533">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A534" s="2">
+        <v>532</v>
+      </c>
+      <c r="B534">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A535" s="2">
+        <v>533</v>
+      </c>
+      <c r="B535">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A536" s="2">
+        <v>534</v>
+      </c>
+      <c r="B536">
+        <v>-58</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A537" s="2">
+        <v>535</v>
+      </c>
+      <c r="B537">
+        <v>-146</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A538" s="2">
+        <v>536</v>
+      </c>
+      <c r="B538">
+        <v>-157</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A539" s="2">
+        <v>537</v>
+      </c>
+      <c r="B539">
+        <v>-97</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A540" s="2">
+        <v>538</v>
+      </c>
+      <c r="B540">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A541" s="2">
+        <v>539</v>
+      </c>
+      <c r="B541">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A542" s="2">
+        <v>540</v>
+      </c>
+      <c r="B542">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A543" s="2">
+        <v>541</v>
+      </c>
+      <c r="B543">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A544" s="2">
+        <v>542</v>
+      </c>
+      <c r="B544">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A545" s="2">
+        <v>543</v>
+      </c>
+      <c r="B545">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A546" s="2">
+        <v>544</v>
+      </c>
+      <c r="B546">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A547" s="2">
+        <v>545</v>
+      </c>
+      <c r="B547">
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A548" s="2">
+        <v>546</v>
+      </c>
+      <c r="B548">
+        <v>-106</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A549" s="2">
+        <v>547</v>
+      </c>
+      <c r="B549">
+        <v>-121</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A550" s="2">
+        <v>548</v>
+      </c>
+      <c r="B550">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A551" s="2">
+        <v>549</v>
+      </c>
+      <c r="B551">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A552" s="2">
+        <v>550</v>
+      </c>
+      <c r="B552">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A553" s="2">
+        <v>551</v>
+      </c>
+      <c r="B553">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A554" s="2">
+        <v>552</v>
+      </c>
+      <c r="B554">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A555" s="2">
+        <v>553</v>
+      </c>
+      <c r="B555">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A556" s="2">
+        <v>554</v>
+      </c>
+      <c r="B556">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A557" s="2">
+        <v>555</v>
+      </c>
+      <c r="B557">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A558" s="2">
+        <v>556</v>
+      </c>
+      <c r="B558">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A559" s="2">
+        <v>557</v>
+      </c>
+      <c r="B559">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A560" s="2">
+        <v>558</v>
+      </c>
+      <c r="B560">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A561" s="2">
+        <v>559</v>
+      </c>
+      <c r="B561">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A562" s="2">
+        <v>560</v>
+      </c>
+      <c r="B562">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A563" s="2">
+        <v>561</v>
+      </c>
+      <c r="B563">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A564" s="2">
+        <v>562</v>
+      </c>
+      <c r="B564">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A565" s="2">
+        <v>563</v>
+      </c>
+      <c r="B565">
+        <v>-235</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A566" s="2">
+        <v>564</v>
+      </c>
+      <c r="B566">
+        <v>-458</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A567" s="2">
+        <v>565</v>
+      </c>
+      <c r="B567">
+        <v>-581</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A568" s="2">
+        <v>566</v>
+      </c>
+      <c r="B568">
+        <v>-577</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A569" s="2">
+        <v>567</v>
+      </c>
+      <c r="B569">
+        <v>-449</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A570" s="2">
+        <v>568</v>
+      </c>
+      <c r="B570">
+        <v>-233</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A571" s="2">
+        <v>569</v>
+      </c>
+      <c r="B571">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A572" s="2">
+        <v>570</v>
+      </c>
+      <c r="B572">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A573" s="2">
+        <v>571</v>
+      </c>
+      <c r="B573">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A574" s="2">
+        <v>572</v>
+      </c>
+      <c r="B574">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A575" s="2">
+        <v>573</v>
+      </c>
+      <c r="B575">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A576" s="2">
+        <v>574</v>
+      </c>
+      <c r="B576">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A577" s="2">
+        <v>575</v>
+      </c>
+      <c r="B577">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A578" s="2">
+        <v>576</v>
+      </c>
+      <c r="B578">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A579" s="2">
+        <v>577</v>
+      </c>
+      <c r="B579">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A580" s="2">
+        <v>578</v>
+      </c>
+      <c r="B580">
+        <v>-76</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A581" s="2">
+        <v>579</v>
+      </c>
+      <c r="B581">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A582" s="2">
+        <v>580</v>
+      </c>
+      <c r="B582">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A583" s="2">
+        <v>581</v>
+      </c>
+      <c r="B583">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A584" s="2">
+        <v>582</v>
+      </c>
+      <c r="B584">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A585" s="2">
+        <v>583</v>
+      </c>
+      <c r="B585">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A586" s="2">
+        <v>584</v>
+      </c>
+      <c r="B586">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A587" s="2">
+        <v>585</v>
+      </c>
+      <c r="B587">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A588" s="2">
+        <v>586</v>
+      </c>
+      <c r="B588">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A589" s="2">
+        <v>587</v>
+      </c>
+      <c r="B589">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A590" s="2">
+        <v>588</v>
+      </c>
+      <c r="B590">
+        <v>-98</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A591" s="2">
+        <v>589</v>
+      </c>
+      <c r="B591">
+        <v>-57</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A592" s="2">
+        <v>590</v>
+      </c>
+      <c r="B592">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A593" s="2">
+        <v>591</v>
+      </c>
+      <c r="B593">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A594" s="2">
+        <v>592</v>
+      </c>
+      <c r="B594">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A595" s="2">
+        <v>593</v>
+      </c>
+      <c r="B595">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A596" s="2">
+        <v>594</v>
+      </c>
+      <c r="B596">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A597" s="2">
+        <v>595</v>
+      </c>
+      <c r="B597">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A598" s="2">
+        <v>596</v>
+      </c>
+      <c r="B598">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A599" s="2">
+        <v>597</v>
+      </c>
+      <c r="B599">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A600" s="2">
+        <v>598</v>
+      </c>
+      <c r="B600">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A601" s="2">
+        <v>599</v>
+      </c>
+      <c r="B601">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
